--- a/data/financial_statements/sofp/IRM.xlsx
+++ b/data/financial_statements/sofp/IRM.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -119,9 +236,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +288,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,144 +595,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>168000000</v>
+        <v>155223000</v>
       </c>
       <c r="C2">
-        <v>145000000</v>
+        <v>144746000</v>
       </c>
       <c r="D2">
-        <v>196000000</v>
+        <v>195660000</v>
       </c>
       <c r="E2">
-        <v>256000000</v>
+        <v>255828000</v>
       </c>
       <c r="F2">
-        <v>161000000</v>
+        <v>161439000</v>
       </c>
       <c r="G2">
         <v>315928000</v>
@@ -727,8 +838,8 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
         <v>1133596000</v>
@@ -849,8 +960,8 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="E4">
         <v>224020000</v>
@@ -872,8 +983,8 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
         <v>1556849000</v>
@@ -994,23 +1105,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>7287000000</v>
+        <v>4730442000</v>
       </c>
       <c r="C6">
-        <v>7131000000</v>
+        <v>4618169000</v>
       </c>
       <c r="D6">
-        <v>7014000000</v>
+        <v>4670647000</v>
       </c>
       <c r="E6">
-        <v>6983000000</v>
+        <v>4668144000</v>
       </c>
       <c r="F6">
-        <v>6897000000</v>
+        <v>4588618000</v>
       </c>
       <c r="G6">
         <v>4455606000</v>
@@ -1116,23 +1227,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>6276000000</v>
+        <v>6276230000</v>
       </c>
       <c r="C7">
-        <v>6432000000</v>
+        <v>6432217000</v>
       </c>
       <c r="D7">
-        <v>6605000000</v>
+        <v>6605120000</v>
       </c>
       <c r="E7">
-        <v>5758000000</v>
+        <v>5644574000</v>
       </c>
       <c r="F7">
-        <v>5703000000</v>
+        <v>5702971000</v>
       </c>
       <c r="G7">
         <v>5764935000</v>
@@ -1238,23 +1349,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>575000000</v>
+        <v>574942000</v>
       </c>
       <c r="C8">
-        <v>606000000</v>
+        <v>517537000</v>
       </c>
       <c r="D8">
-        <v>585000000</v>
+        <v>480887000</v>
       </c>
       <c r="E8">
-        <v>357000000</v>
+        <v>381624000</v>
       </c>
       <c r="F8">
-        <v>483000000</v>
+        <v>365706000</v>
       </c>
       <c r="G8">
         <v>360970000</v>
@@ -1360,8 +1471,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B9">
         <v>14137870000</v>
@@ -1482,23 +1593,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>15695000000</v>
+        <v>15694720000</v>
       </c>
       <c r="C10">
-        <v>15622000000</v>
+        <v>15622320000</v>
       </c>
       <c r="D10">
-        <v>15628000000</v>
+        <v>15627980000</v>
       </c>
       <c r="E10">
-        <v>14450000000</v>
+        <v>14450030000</v>
       </c>
       <c r="F10">
-        <v>14234000000</v>
+        <v>14234390000</v>
       </c>
       <c r="G10">
         <v>14314320000</v>
@@ -1604,8 +1715,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>432384000</v>
@@ -1726,8 +1837,8 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
         <v>929566000</v>
@@ -1848,23 +1959,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>352000000</v>
+        <v>81275000</v>
       </c>
       <c r="C13">
-        <v>349000000</v>
+        <v>86790000</v>
       </c>
       <c r="D13">
-        <v>356000000</v>
+        <v>91180000</v>
       </c>
       <c r="E13">
-        <v>569000000</v>
+        <v>309428000</v>
       </c>
       <c r="F13">
-        <v>576000000</v>
+        <v>318144000</v>
       </c>
       <c r="G13">
         <v>106274000</v>
@@ -1970,8 +2081,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>282687000</v>
@@ -2092,8 +2203,8 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="Z15">
         <v>19269000</v>
@@ -2103,8 +2214,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1725912000</v>
@@ -2225,23 +2336,23 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B17">
-        <v>12635000000</v>
+        <v>10228850000</v>
       </c>
       <c r="C17">
-        <v>12364000000</v>
+        <v>9993126000</v>
       </c>
       <c r="D17">
-        <v>12340000000</v>
+        <v>10143010000</v>
       </c>
       <c r="E17">
-        <v>11140000000</v>
+        <v>8962513000</v>
       </c>
       <c r="F17">
-        <v>10980000000</v>
+        <v>8815273000</v>
       </c>
       <c r="G17">
         <v>8760728000</v>
@@ -2347,8 +2458,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>314000000</v>
@@ -2460,23 +2571,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>308000000</v>
+        <v>307717000</v>
       </c>
       <c r="C19">
-        <v>325000000</v>
+        <v>325222000</v>
       </c>
       <c r="D19">
-        <v>348000000</v>
+        <v>347562000</v>
       </c>
       <c r="E19">
-        <v>224000000</v>
+        <v>223934000</v>
       </c>
       <c r="F19">
-        <v>237000000</v>
+        <v>236782000</v>
       </c>
       <c r="G19">
         <v>236811000</v>
@@ -2582,8 +2693,8 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
         <v>93821000</v>
@@ -2659,23 +2770,23 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
-        <v>1459000000</v>
+        <v>398830000</v>
       </c>
       <c r="C21">
-        <v>1502000000</v>
+        <v>404703000</v>
       </c>
       <c r="D21">
-        <v>1418000000</v>
+        <v>407826000</v>
       </c>
       <c r="E21">
-        <v>1246000000</v>
+        <v>144053000</v>
       </c>
       <c r="F21">
-        <v>1113000000</v>
+        <v>155048000</v>
       </c>
       <c r="G21">
         <v>169548000</v>
@@ -2781,8 +2892,8 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
         <v>13434960000</v>
@@ -2903,23 +3014,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>15067000000</v>
+        <v>15160880000</v>
       </c>
       <c r="C23">
-        <v>14877000000</v>
+        <v>14970540000</v>
       </c>
       <c r="D23">
-        <v>14796000000</v>
+        <v>14869210000</v>
       </c>
       <c r="E23">
-        <v>13521000000</v>
+        <v>13592960000</v>
       </c>
       <c r="F23">
-        <v>13198000000</v>
+        <v>13259250000</v>
       </c>
       <c r="G23">
         <v>13166570000</v>
@@ -3025,8 +3136,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B24">
         <v>4445988000</v>
@@ -3147,23 +3258,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>3000000</v>
+        <v>2907000</v>
       </c>
       <c r="C25">
-        <v>3000000</v>
+        <v>2907000</v>
       </c>
       <c r="D25">
-        <v>3000000</v>
+        <v>2906000</v>
       </c>
       <c r="E25">
-        <v>3000000</v>
+        <v>2898000</v>
       </c>
       <c r="F25">
-        <v>3000000</v>
+        <v>2895000</v>
       </c>
       <c r="G25">
         <v>2895000</v>
@@ -3269,23 +3380,23 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
-        <v>-3330000000</v>
+        <v>-3330213000</v>
       </c>
       <c r="C26">
-        <v>-3341000000</v>
+        <v>-3340992000</v>
       </c>
       <c r="D26">
-        <v>-3360000000</v>
+        <v>-3359876000</v>
       </c>
       <c r="E26">
-        <v>-3221000000</v>
+        <v>-3221152000</v>
       </c>
       <c r="F26">
-        <v>-3102000000</v>
+        <v>-3101813000</v>
       </c>
       <c r="G26">
         <v>-2988896000</v>
@@ -3391,23 +3502,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>529000000</v>
+        <v>533839100</v>
       </c>
       <c r="C27">
-        <v>647000000</v>
+        <v>651775100</v>
       </c>
       <c r="D27">
-        <v>758000000</v>
+        <v>758770500</v>
       </c>
       <c r="E27">
-        <v>856000000</v>
+        <v>857068100</v>
       </c>
       <c r="F27">
-        <v>974000000</v>
+        <v>975145900</v>
       </c>
       <c r="G27">
         <v>1147742000</v>
@@ -3513,23 +3624,23 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
-        <v>529000000</v>
+        <v>533839000</v>
       </c>
       <c r="C28">
-        <v>647000000</v>
+        <v>651775000</v>
       </c>
       <c r="D28">
-        <v>758000000</v>
+        <v>758771000</v>
       </c>
       <c r="E28">
-        <v>856000000</v>
+        <v>857068000</v>
       </c>
       <c r="F28">
-        <v>974000000</v>
+        <v>975146000</v>
       </c>
       <c r="G28">
         <v>1147742000</v>
@@ -3635,8 +3746,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B29">
         <v>15694720000</v>
@@ -3757,8 +3868,8 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
         <v>290688000</v>
@@ -3879,8 +3990,8 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
         <v>-5742391000</v>
@@ -4001,23 +4112,23 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
-        <v>12819000000</v>
+        <v>10154902000</v>
       </c>
       <c r="C32">
-        <v>12568000000</v>
+        <v>9935170000</v>
       </c>
       <c r="D32">
-        <v>12500000000</v>
+        <v>10038530000</v>
       </c>
       <c r="E32">
-        <v>11453000000</v>
+        <v>9016113000</v>
       </c>
       <c r="F32">
-        <v>11395000000</v>
+        <v>8971978000</v>
       </c>
       <c r="G32">
         <v>8551074000</v>
@@ -4123,23 +4234,23 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B33">
-        <v>12987000000</v>
+        <v>10310125000</v>
       </c>
       <c r="C33">
-        <v>12713000000</v>
+        <v>10079916000</v>
       </c>
       <c r="D33">
-        <v>12696000000</v>
+        <v>10234190000</v>
       </c>
       <c r="E33">
-        <v>11709000000</v>
+        <v>9271941000</v>
       </c>
       <c r="F33">
-        <v>11556000000</v>
+        <v>9133417000</v>
       </c>
       <c r="G33">
         <v>8867002000</v>
